--- a/data/trans_orig/P14A98-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A98-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BA735C8-BBA5-447B-A599-B0D70D8327E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D283BB8B-2EDE-4BF5-BCB4-ED0A159A0419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BA1567D0-3F03-44C5-AA3F-F2E653856077}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{360AA823-168E-44A1-87B0-2AD2F1B9072C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -150,37 +150,37 @@
     <t>84,1%</t>
   </si>
   <si>
-    <t>21,65%</t>
+    <t>29,38%</t>
   </si>
   <si>
     <t>87,22%</t>
   </si>
   <si>
-    <t>49,25%</t>
+    <t>48,92%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>57,67%</t>
+    <t>56,81%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>78,35%</t>
+    <t>70,62%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>50,75%</t>
+    <t>51,08%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>42,33%</t>
+    <t>43,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -252,49 +252,49 @@
     <t>65,77%</t>
   </si>
   <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>78,0%</t>
   </si>
   <si>
-    <t>43,48%</t>
+    <t>39,32%</t>
   </si>
   <si>
     <t>71,64%</t>
   </si>
   <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
   </si>
   <si>
     <t>34,23%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
   </si>
   <si>
     <t>22,0%</t>
   </si>
   <si>
-    <t>56,52%</t>
+    <t>60,68%</t>
   </si>
   <si>
     <t>28,36%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
   </si>
 </sst>
 </file>
@@ -706,7 +706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37918C13-E2F1-4C58-B9BB-FC817E72B374}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC8A55-564A-4B33-8BC7-11B9FADC658D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2171,7 +2171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8072D55E-BD37-4183-8210-72AF32392C85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC6DCDE-EE11-4174-9A8D-3F18E818F75D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A98-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A98-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D283BB8B-2EDE-4BF5-BCB4-ED0A159A0419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{959BD2BC-C342-4643-A1C0-3F06158F83CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{360AA823-168E-44A1-87B0-2AD2F1B9072C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1FF9A97-6724-4D9A-A029-198AFC6485F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="84">
   <si>
     <t>Población que recibe medicación o terapia por otra enfermedad 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -117,18 +117,12 @@
     <t>74,86%</t>
   </si>
   <si>
-    <t>23,43%</t>
-  </si>
-  <si>
     <t>49,94%</t>
   </si>
   <si>
     <t>25,14%</t>
   </si>
   <si>
-    <t>76,57%</t>
-  </si>
-  <si>
     <t>Huelva</t>
   </si>
   <si>
@@ -150,43 +144,43 @@
     <t>84,1%</t>
   </si>
   <si>
-    <t>29,38%</t>
+    <t>34,18%</t>
   </si>
   <si>
     <t>87,22%</t>
   </si>
   <si>
-    <t>48,92%</t>
+    <t>48,07%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>56,81%</t>
+    <t>63,09%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>70,62%</t>
+    <t>65,82%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>51,08%</t>
+    <t>51,93%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>43,19%</t>
+    <t>36,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por otra enfermedad 2 en 2015 (Tasa respuesta: 0,32%)</t>
+    <t>Población que recibe medicación o terapia por otra enfermedad 2 en 2016 (Tasa respuesta: 0,32%)</t>
   </si>
   <si>
     <t>69,81%</t>
@@ -207,7 +201,7 @@
     <t>59,15%</t>
   </si>
   <si>
-    <t>18,6%</t>
+    <t>18,68%</t>
   </si>
   <si>
     <t>51,94%</t>
@@ -216,7 +210,7 @@
     <t>40,85%</t>
   </si>
   <si>
-    <t>81,4%</t>
+    <t>81,32%</t>
   </si>
   <si>
     <t>43,83%</t>
@@ -252,49 +246,49 @@
     <t>65,77%</t>
   </si>
   <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
   </si>
   <si>
     <t>78,0%</t>
   </si>
   <si>
-    <t>39,32%</t>
+    <t>36,79%</t>
   </si>
   <si>
     <t>71,64%</t>
   </si>
   <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
   </si>
   <si>
     <t>34,23%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
   </si>
   <si>
     <t>22,0%</t>
   </si>
   <si>
-    <t>60,68%</t>
+    <t>63,21%</t>
   </si>
   <si>
     <t>28,36%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
   </si>
 </sst>
 </file>
@@ -706,7 +700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC8A55-564A-4B33-8BC7-11B9FADC658D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFAB0AE-2F6C-4AE8-A2CE-76537420234A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1298,7 +1292,7 @@
         <v>25</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -1316,7 +1310,7 @@
         <v>983</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
@@ -1346,13 +1340,13 @@
         <v>983</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1408,7 +1402,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1545,7 +1539,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1560,7 +1554,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -1588,7 +1582,7 @@
         <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -1612,7 +1606,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1640,7 +1634,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,7 +1688,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1843,7 +1837,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -1874,7 +1868,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -1889,7 +1883,7 @@
         <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1920,7 +1914,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>16</v>
@@ -1935,7 +1929,7 @@
         <v>14</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>16</v>
@@ -2004,10 +1998,10 @@
         <v>5201</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>14</v>
@@ -2019,10 +2013,10 @@
         <v>7264</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>14</v>
@@ -2034,10 +2028,10 @@
         <v>12465</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>14</v>
@@ -2055,13 +2049,13 @@
         <v>983</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2070,13 +2064,13 @@
         <v>1064</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2085,13 +2079,13 @@
         <v>2047</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,7 +2141,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2171,7 +2165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC6DCDE-EE11-4174-9A8D-3F18E818F75D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088C471F-38B8-4E26-B096-98D37B731BA1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2188,7 +2182,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2311,7 +2305,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -2326,7 +2320,7 @@
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -2363,7 +2357,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2378,7 +2372,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,7 +2444,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2474,7 +2468,7 @@
         <v>2506</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>17</v>
@@ -2498,7 +2492,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2525,7 +2519,7 @@
         <v>1084</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
@@ -2736,7 +2730,7 @@
         <v>2049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>17</v>
@@ -2764,7 +2758,7 @@
         <v>2049</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>17</v>
@@ -2785,7 +2779,7 @@
         <v>845</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
@@ -2813,7 +2807,7 @@
         <v>845</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
@@ -2873,7 +2867,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3022,7 +3016,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3034,7 +3028,7 @@
         <v>1935</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>17</v>
@@ -3052,7 +3046,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -3064,10 +3058,10 @@
         <v>3027</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -3085,7 +3079,7 @@
         <v>2091</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>17</v>
@@ -3106,7 +3100,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3115,13 +3109,13 @@
         <v>2091</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,7 +3171,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3192,7 +3186,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -3204,7 +3198,7 @@
         <v>816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>17</v>
@@ -3219,7 +3213,7 @@
         <v>1866</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>17</v>
@@ -3246,7 +3240,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3255,7 +3249,7 @@
         <v>1045</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
@@ -3270,7 +3264,7 @@
         <v>1046</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>17</v>
@@ -3332,7 +3326,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3359,7 +3353,7 @@
         <v>1132</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>17</v>
@@ -3374,10 +3368,10 @@
         <v>3820</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -3410,7 +3404,7 @@
         <v>1335</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
@@ -3425,13 +3419,13 @@
         <v>1336</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3493,13 @@
         <v>7723</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -3514,10 +3508,10 @@
         <v>8440</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>14</v>
@@ -3529,13 +3523,13 @@
         <v>16164</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3544,13 @@
         <v>4019</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3565,13 +3559,13 @@
         <v>2381</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -3580,13 +3574,13 @@
         <v>6400</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,7 +3636,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
